--- a/house-power/src/main/resources/house-power-template.xlsx
+++ b/house-power/src/main/resources/house-power-template.xlsx
@@ -137,6 +137,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -158,6 +159,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -165,6 +167,7 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -246,56 +249,60 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,573 +386,573 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4" t="n">
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="5" t="n">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="6" t="n">
         <f aca="false">SUM(C2:Z2)</f>
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="n">
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="n">
         <v>4.4</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>4.4</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>4.4</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="n">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="5" t="n">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="6" t="n">
         <f aca="false">SUM(C3:Z3)</f>
         <v>14.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA4" s="5" t="n">
+      <c r="C4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA4" s="6" t="n">
         <f aca="false">SUM(C4:Z4)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="1" t="n">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="n">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="n">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="n">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="5" t="n">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="6" t="n">
         <f aca="false">SUM(C5:Z5)</f>
         <v>4.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="6" t="n">
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="7" t="n">
         <v>-0.2</v>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="S6" s="7" t="n">
         <f aca="false">-S4-S5</f>
         <v>-0.2</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="T6" s="7" t="n">
         <f aca="false">-T4-T5</f>
         <v>-0.2</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="7" t="n">
         <v>-0.2</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="V6" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="W6" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="5" t="n">
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="6" t="n">
         <f aca="false">SUM(C6:Z6)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="7" t="n">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="8" t="n">
         <v>-1.4</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="8" t="n">
         <v>-0.2</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="Q7" s="8" t="n">
         <v>-0.2</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="5" t="n">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="6" t="n">
         <f aca="false">SUM(C7:Z7)</f>
         <v>-2.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>-4</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>-4</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>-4</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>-8.4</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>-4.4</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="5" t="n">
         <v>-4.4</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1" t="n">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2" t="n">
         <v>-0.8</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="2" t="n">
         <v>-0.2</v>
       </c>
-      <c r="N8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1" t="n">
+      <c r="N8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
         <v>-0.8</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="W8" s="2" t="n">
         <v>-0.8</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="X8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="Y8" s="2" t="n">
         <v>-0.2</v>
       </c>
-      <c r="Z8" s="1" t="n">
+      <c r="Z8" s="2" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AA8" s="5" t="n">
+      <c r="AA8" s="6" t="n">
         <f aca="false">SUM(C8:Z8)</f>
         <v>-34.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <f aca="false">SUM(C2:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="11" t="n">
         <f aca="false">SUM(D2:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="11" t="n">
         <f aca="false">SUM(E2:E8)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="11" t="n">
         <f aca="false">SUM(F2:F8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="11" t="n">
         <f aca="false">SUM(G2:G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="11" t="n">
         <f aca="false">SUM(H2:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="11" t="n">
         <f aca="false">SUM(I2:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="11" t="n">
         <f aca="false">SUM(J2:J8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="11" t="n">
         <f aca="false">SUM(K2:K8)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="6" t="n">
         <f aca="false">SUM(L2:L8)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="6" t="n">
         <f aca="false">SUM(M2:M8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="6" t="n">
         <f aca="false">SUM(N2:N8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="6" t="n">
         <f aca="false">SUM(O2:O8)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="6" t="n">
         <f aca="false">SUM(P2:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q9" s="6" t="n">
         <f aca="false">SUM(Q2:Q8)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="12" t="n">
         <f aca="false">SUM(R2:R8)</f>
         <v>0.8</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="S9" s="6" t="n">
         <f aca="false">SUM(S2:S8)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="6" t="n">
         <f aca="false">SUM(T2:T8)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="12" t="n">
         <f aca="false">SUM(U2:U8)</f>
         <v>0.8</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="6" t="n">
         <f aca="false">SUM(V2:V8)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="6" t="n">
         <f aca="false">SUM(W2:W8)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="6" t="n">
         <f aca="false">SUM(X2:X8)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="5" t="n">
+      <c r="Y9" s="6" t="n">
         <f aca="false">SUM(Y2:Y8)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="5" t="n">
+      <c r="Z9" s="6" t="n">
         <f aca="false">SUM(Z2:Z8)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="13" t="n">
         <f aca="false">SUM(C9:Z9)</f>
         <v>1.6</v>
       </c>
